--- a/prix/basin.xlsx
+++ b/prix/basin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EC0421-CF81-4E4B-9BFD-A5D76007A492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85416EF-A49F-4BD2-BD86-A356D1F04792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -350,16 +350,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -698,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +732,7 @@
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -747,10 +741,10 @@
       <c r="D2" s="14">
         <v>24.2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>13</v>
       </c>
     </row>
@@ -758,7 +752,7 @@
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -767,10 +761,10 @@
       <c r="D3" s="14">
         <v>24.2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>6</v>
       </c>
     </row>
@@ -778,7 +772,7 @@
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -787,10 +781,10 @@
       <c r="D4" s="14">
         <v>24.2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
     </row>
@@ -798,7 +792,7 @@
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -807,10 +801,10 @@
       <c r="D5" s="14">
         <v>26.2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>4</v>
       </c>
     </row>
@@ -818,7 +812,7 @@
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -827,10 +821,10 @@
       <c r="D6" s="14">
         <v>113.62</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
     </row>
@@ -838,7 +832,7 @@
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -847,10 +841,10 @@
       <c r="D7" s="14">
         <v>61.2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>2</v>
       </c>
     </row>
@@ -865,10 +859,10 @@
       <c r="D8" s="14">
         <v>103.24000000000001</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
     </row>
@@ -883,10 +877,10 @@
       <c r="D9" s="14">
         <v>32</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>10</v>
       </c>
     </row>
@@ -898,10 +892,10 @@
       <c r="D10" s="14">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0</v>
       </c>
     </row>
@@ -916,10 +910,10 @@
       <c r="D11" s="14">
         <v>32</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>3</v>
       </c>
     </row>
@@ -927,7 +921,7 @@
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -936,10 +930,10 @@
       <c r="D12" s="14">
         <v>95.83</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>5</v>
       </c>
     </row>
@@ -947,7 +941,7 @@
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -956,10 +950,10 @@
       <c r="D13" s="14">
         <v>183.18</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>12</v>
       </c>
     </row>
@@ -967,7 +961,7 @@
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -976,10 +970,10 @@
       <c r="D14" s="14">
         <v>86.29</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>5</v>
       </c>
     </row>
@@ -987,7 +981,7 @@
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -996,16 +990,16 @@
       <c r="D15" s="14">
         <v>205.25</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1014,16 +1008,16 @@
       <c r="D16" s="14">
         <v>7.41</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1032,10 +1026,10 @@
       <c r="D17" s="14">
         <v>16.7</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1050,10 +1044,10 @@
       <c r="D18" s="14">
         <v>181.98</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1061,7 +1055,7 @@
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1070,10 +1064,10 @@
       <c r="D19" s="14">
         <v>23.46</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1081,7 +1075,7 @@
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1090,10 +1084,10 @@
       <c r="D20" s="14">
         <v>18.39</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1101,7 +1095,7 @@
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1110,10 +1104,10 @@
       <c r="D21" s="14">
         <v>32.450000000000003</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1121,7 +1115,7 @@
       <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1130,10 +1124,10 @@
       <c r="D22" s="14">
         <v>76.8</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1141,7 +1135,7 @@
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1150,10 +1144,10 @@
       <c r="D23" s="14">
         <v>72.45</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1161,7 +1155,7 @@
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1170,10 +1164,10 @@
       <c r="D24" s="14">
         <v>34.410000000000004</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>10</v>
       </c>
     </row>
@@ -1181,7 +1175,7 @@
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1190,10 +1184,10 @@
       <c r="D25" s="14">
         <v>34.450000000000003</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1201,7 +1195,7 @@
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1210,10 +1204,10 @@
       <c r="D26" s="14">
         <v>76.900000000000006</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1221,7 +1215,7 @@
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1230,10 +1224,10 @@
       <c r="D27" s="14">
         <v>48.18</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>3</v>
       </c>
     </row>

--- a/prix/basin.xlsx
+++ b/prix/basin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85416EF-A49F-4BD2-BD86-A356D1F04792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9043461E-912C-4D59-AE4C-498CE31F8FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>path</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>basin/vitrificateur-2-composants-acryl.png</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -348,12 +351,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -692,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,13 +735,13 @@
       <c r="C2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>24.2</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>13</v>
       </c>
     </row>
@@ -758,13 +755,13 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>24.2</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>6</v>
       </c>
     </row>
@@ -778,13 +775,13 @@
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>24.2</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
     </row>
@@ -798,13 +795,13 @@
       <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>26.2</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>4</v>
       </c>
     </row>
@@ -818,13 +815,13 @@
       <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>113.62</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
     </row>
@@ -838,13 +835,13 @@
       <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>61.2</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
     </row>
@@ -856,13 +853,13 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>103.24000000000001</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -874,13 +871,13 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>32</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>10</v>
       </c>
     </row>
@@ -889,13 +886,13 @@
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>32</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -907,13 +904,13 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>32</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>3</v>
       </c>
     </row>
@@ -927,13 +924,13 @@
       <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>95.83</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <v>5</v>
       </c>
     </row>
@@ -947,13 +944,13 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>183.18</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <v>12</v>
       </c>
     </row>
@@ -967,13 +964,13 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <v>86.29</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <v>5</v>
       </c>
     </row>
@@ -987,13 +984,13 @@
       <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>205.25</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1005,13 +1002,13 @@
       <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>7.41</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1023,13 +1020,13 @@
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>16.7</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1041,13 +1038,13 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>181.98</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1061,13 +1058,13 @@
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>23.46</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1081,13 +1078,13 @@
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>18.39</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1101,13 +1098,13 @@
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>32.450000000000003</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1121,13 +1118,13 @@
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="10">
         <v>76.8</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1141,13 +1138,13 @@
       <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>72.45</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1161,13 +1158,13 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>34.410000000000004</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <v>10</v>
       </c>
     </row>
@@ -1181,13 +1178,13 @@
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>34.450000000000003</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1201,13 +1198,13 @@
       <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <v>76.900000000000006</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1221,19 +1218,21 @@
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="10">
         <v>48.18</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
       <c r="F28" s="11"/>
